--- a/prac.xlsx
+++ b/prac.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="prac1" sheetId="1" r:id="rId1"/>
+    <sheet name="prac2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -154,20 +154,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -472,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,7 +503,7 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L1" t="s">
@@ -735,22 +735,22 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="4"/>
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="4">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="1">
@@ -764,9 +764,9 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="1">
         <v>0</v>
       </c>
@@ -778,13 +778,13 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="4">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="4">
         <v>0</v>
       </c>
       <c r="D15" s="1">
@@ -798,9 +798,9 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="1">
         <v>1</v>
       </c>
@@ -812,13 +812,13 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="1">
@@ -832,9 +832,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="1">
         <v>2</v>
       </c>
@@ -846,13 +846,13 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="4">
         <v>3</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="1">
@@ -866,9 +866,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="1">
         <v>3</v>
       </c>
@@ -880,13 +880,13 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="4">
         <v>4</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="1">
@@ -900,9 +900,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="1">
         <v>4</v>
       </c>
@@ -914,13 +914,13 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="4">
         <v>5</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="4">
         <v>0</v>
       </c>
       <c r="D23" s="1">
@@ -934,9 +934,9 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="1">
         <v>5</v>
       </c>
@@ -949,6 +949,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="A9:C10"/>
@@ -965,16 +975,6 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -983,12 +983,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="M1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/prac.xlsx
+++ b/prac.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
   <si>
     <t>rst</t>
   </si>
@@ -88,13 +88,67 @@
   </si>
   <si>
     <t>HEX</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>inv</t>
+  </si>
+  <si>
+    <t>dec</t>
+  </si>
+  <si>
+    <t>hex</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>M02</t>
+  </si>
+  <si>
+    <t>A00</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>void</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>A13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +182,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -149,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -157,17 +219,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,7 +548,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,61 +771,61 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>0</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="5">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="1">
@@ -764,9 +839,9 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="1">
         <v>0</v>
       </c>
@@ -778,13 +853,13 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>1</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="5">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="5">
         <v>0</v>
       </c>
       <c r="D15" s="1">
@@ -798,9 +873,9 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="1">
         <v>1</v>
       </c>
@@ -812,13 +887,13 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="5">
         <v>2</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="1">
@@ -832,9 +907,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="1">
         <v>2</v>
       </c>
@@ -846,13 +921,13 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="5">
         <v>3</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="1">
@@ -866,9 +941,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="1">
         <v>3</v>
       </c>
@@ -880,13 +955,13 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="5">
         <v>4</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="1">
@@ -900,9 +975,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="1">
         <v>4</v>
       </c>
@@ -914,13 +989,13 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23" s="5">
         <v>5</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="5">
         <v>0</v>
       </c>
       <c r="D23" s="1">
@@ -934,9 +1009,9 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="1">
         <v>5</v>
       </c>
@@ -949,16 +1024,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="A9:C10"/>
@@ -975,6 +1040,16 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -983,19 +1058,1194 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="M1"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1" s="2"/>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <f>U2+2*T2+4*S2+8*R2+16*Q2+32*P2+64*O2+128*N2+256*M2+512*L2+1024*K2+1024*2*J2+1024*4*I2+1024*8*H2+1024*16*G2+32*1024*F2+1024*64*E2+1024*128*D2+1024*256*C2+1024*512*B2</f>
+        <v>524356</v>
+      </c>
+      <c r="W2" t="str">
+        <f>DEC2HEX(V2)</f>
+        <v>80044</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V10" si="0">U3+2*T3+4*S3+8*R3+16*Q3+32*P3+64*O3+128*N3+256*M3+512*L3+1024*K3+1024*2*J3+1024*4*I3+1024*8*H3+1024*16*G3+32*1024*F3+1024*64*E3+1024*128*D3+1024*256*C3+1024*512*B3</f>
+        <v>328224</v>
+      </c>
+      <c r="W3" t="str">
+        <f t="shared" ref="W3:W9" si="1">DEC2HEX(V3)</f>
+        <v>50220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>8396</v>
+      </c>
+      <c r="W4" t="str">
+        <f t="shared" si="1"/>
+        <v>20CC</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>447960</v>
+      </c>
+      <c r="W5" t="str">
+        <f t="shared" si="1"/>
+        <v>6D5D8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>10580</v>
+      </c>
+      <c r="W6" t="str">
+        <f t="shared" si="1"/>
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>49764</v>
+      </c>
+      <c r="W7" t="str">
+        <f t="shared" si="1"/>
+        <v>C264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="W8" t="str">
+        <f t="shared" si="1"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="W9" t="str">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="W10" t="str">
+        <f>DEC2HEX(V10)</f>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>0</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>1</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9">
+        <v>8</v>
+      </c>
+      <c r="E13" s="9">
+        <v>8</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>2</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0</v>
+      </c>
+      <c r="D14" s="9">
+        <v>3</v>
+      </c>
+      <c r="E14" s="9">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>3</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9">
+        <v>7</v>
+      </c>
+      <c r="E15" s="9">
+        <v>6</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
+        <v>4</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
+        <v>5</v>
+      </c>
+      <c r="E16" s="9">
+        <v>5</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>5</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0</v>
+      </c>
+      <c r="D17" s="9">
+        <v>9</v>
+      </c>
+      <c r="E17" s="9">
+        <v>9</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <v>6</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9">
+        <v>3</v>
+      </c>
+      <c r="E18" s="9">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>7</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0</v>
+      </c>
+      <c r="D19" s="9">
+        <v>5</v>
+      </c>
+      <c r="E19" s="9">
+        <v>4</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>8</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0</v>
+      </c>
+      <c r="D20" s="9">
+        <v>3</v>
+      </c>
+      <c r="E20" s="9">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
